--- a/cmip6/models/cmcc-esm2/cmip6_cmcc_cmcc-esm2_ocnbgchem.xlsx
+++ b/cmip6/models/cmcc-esm2/cmip6_cmcc_cmcc-esm2_ocnbgchem.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/models/cmcc-esm2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E447B2-CAAE-2E46-A04E-E2DF9A73B6E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="24700" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Tracers" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="439">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1280,13 +1286,67 @@
   </si>
   <si>
     <t>Diagnostic)</t>
+  </si>
+  <si>
+    <t>Tomas Lovato</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>Ocean, biogeocehmistry, marine ecology, quota model</t>
+  </si>
+  <si>
+    <t>Dissolved Inorganic Iron</t>
+  </si>
+  <si>
+    <t>The model tuning followed indications provided in OMIP and C4MIP protocols to achieve a stable air-sea co2 echange.</t>
+  </si>
+  <si>
+    <t>Biogeochemical Flux Model (BFM) v5.2</t>
+  </si>
+  <si>
+    <t>Oxygen, Phosphate, Nitrate, Ammonium, Silicate, Bioavailable Iron, Bacteria, Diatoms, Flagellates, Mesozooplankton, Microzooplankton, Dissolved Inorganic Carbon, Total Alkalinity, Calcite, Dissolved Organic Matter, Particulate Organic Matter</t>
+  </si>
+  <si>
+    <t>Variable stoichiometry (C, N, P, Si, Fe): Diatoms, Flagellates, Dissolved Organic Matter (pelagic and benthic), Particulate Organic Matter (pelagic and benthic). Fixed stoichiometry (C ratios): Bacteria, Microzooplankton, Mesozooplankton</t>
+  </si>
+  <si>
+    <t>The Biogeochemical Flux Model (BFM v5.2, www.bfm-community.eu/) is a biomass-based numerical model to simulate the major biogeochemical processes occurring in pelagic, benthic and sea-ice components of marine ecosystems. The BFM considers the cycles of nitrogen, phosphorus, silica, iron, carbon, and oxygen in the water, sediments, sea ice and in the related organisms from bacteria to benthic meiofauna. All living organisms are Plankton dynamics are parameterized in terms of functional groups with prescribed functional traits. For instance, the BFM plankton functional groups are subdivided in producers (phytoplankton), consumers (zooplankton), and decomposers (bacteria). These broad functional classifications are further partitioned into functional subgroups to create a planktonic food web (e.g. diatoms, picophytoplankton, microzooplankton, etc.).</t>
+  </si>
+  <si>
+    <t>All variables produced for CMIP6, that are included in list 1.1.1.7</t>
+  </si>
+  <si>
+    <t>MUSCL</t>
+  </si>
+  <si>
+    <t>Dissolved Inorganic Matter (C, N, P, Si), Particulated Inorganic Matter (C, N, P, Si), Dissolved Inorganic Carbon, Dissolved Oxygen</t>
+  </si>
+  <si>
+    <t>Nitrification</t>
+  </si>
+  <si>
+    <t>PFT inclusing size based</t>
+  </si>
+  <si>
+    <t>Flagellates</t>
+  </si>
+  <si>
+    <t>Explicit representation of Micro- and Meso-Zooplankton</t>
+  </si>
+  <si>
+    <t>The advective transport of oceanic biogeochemical tracers is computed with MUSCL scheme madec_2017, while active physical tracers are advected using the TVD scheme.</t>
+  </si>
+  <si>
+    <t>madec_2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,6 +1542,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1528,7 +1596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1560,9 +1628,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1594,6 +1680,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1769,24 +1873,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1810,7 +1916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1826,12 +1932,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1839,7 +1945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1847,7 +1953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1855,7 +1961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1863,13 +1969,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1877,54 +1985,56 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1932,27 +2042,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1960,42 +2074,48 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Tracers"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD235"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AD235"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
@@ -2003,12 +2123,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>36</v>
       </c>
@@ -2016,7 +2136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
@@ -2027,10 +2147,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
@@ -2038,7 +2160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
@@ -2049,15 +2171,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>46</v>
       </c>
@@ -2065,7 +2189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
@@ -2076,15 +2200,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>51</v>
       </c>
@@ -2092,7 +2218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
@@ -2103,8 +2229,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+    <row r="20" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>56</v>
       </c>
@@ -2118,7 +2246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
+    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>60</v>
       </c>
@@ -2126,7 +2254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
+    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>53</v>
       </c>
@@ -2137,8 +2265,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AA24" s="6" t="s">
         <v>64</v>
       </c>
@@ -2149,7 +2279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
+    <row r="26" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>67</v>
       </c>
@@ -2157,7 +2287,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
+    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>38</v>
       </c>
@@ -2168,15 +2298,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1">
+    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="B29" s="11"/>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
+    <row r="29" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>71</v>
       </c>
@@ -2184,7 +2316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="24" customHeight="1">
+    <row r="32" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
@@ -2195,15 +2327,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
+    <row r="34" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>75</v>
       </c>
@@ -2211,7 +2345,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>38</v>
       </c>
@@ -2222,15 +2356,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>79</v>
       </c>
@@ -2238,7 +2374,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>38</v>
       </c>
@@ -2249,10 +2385,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>83</v>
       </c>
@@ -2260,12 +2398,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="24" customHeight="1">
+    <row r="49" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>86</v>
       </c>
@@ -2273,7 +2411,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="24" customHeight="1">
+    <row r="50" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>53</v>
       </c>
@@ -2284,8 +2422,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="24" customHeight="1">
-      <c r="B51" s="11"/>
+    <row r="51" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AA51" s="6" t="s">
         <v>90</v>
       </c>
@@ -2293,7 +2433,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="24" customHeight="1">
+    <row r="53" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>92</v>
       </c>
@@ -2301,7 +2441,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="24" customHeight="1">
+    <row r="54" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>94</v>
       </c>
@@ -2312,10 +2452,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="24" customHeight="1">
+    <row r="55" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
     </row>
-    <row r="58" spans="1:28" ht="24" customHeight="1">
+    <row r="58" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>97</v>
       </c>
@@ -2323,12 +2463,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="24" customHeight="1">
+    <row r="59" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="24" customHeight="1">
+    <row r="61" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>100</v>
       </c>
@@ -2336,7 +2476,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="24" customHeight="1">
+    <row r="62" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>53</v>
       </c>
@@ -2347,8 +2487,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
+    <row r="63" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AA63" s="6" t="s">
         <v>90</v>
       </c>
@@ -2356,7 +2498,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="24" customHeight="1">
+    <row r="65" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>103</v>
       </c>
@@ -2364,7 +2506,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="24" customHeight="1">
+    <row r="66" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>94</v>
       </c>
@@ -2375,10 +2517,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="24" customHeight="1">
+    <row r="67" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
     </row>
-    <row r="70" spans="1:28" ht="24" customHeight="1">
+    <row r="70" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>106</v>
       </c>
@@ -2386,12 +2528,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="24" customHeight="1">
+    <row r="71" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="24" customHeight="1">
+    <row r="73" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>109</v>
       </c>
@@ -2399,7 +2541,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="24" customHeight="1">
+    <row r="74" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>53</v>
       </c>
@@ -2410,8 +2552,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+    <row r="75" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="AA75" s="6" t="s">
         <v>113</v>
       </c>
@@ -2419,7 +2563,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="24" customHeight="1">
+    <row r="77" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>115</v>
       </c>
@@ -2427,7 +2571,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="24" customHeight="1">
+    <row r="78" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>53</v>
       </c>
@@ -2438,8 +2582,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
+    <row r="79" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>431</v>
+      </c>
       <c r="AA79" s="6" t="s">
         <v>119</v>
       </c>
@@ -2447,7 +2596,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="24" customHeight="1">
+    <row r="81" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>120</v>
       </c>
@@ -2455,7 +2604,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="24" customHeight="1">
+    <row r="82" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>38</v>
       </c>
@@ -2466,15 +2615,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="24" customHeight="1">
+    <row r="83" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="178" customHeight="1">
-      <c r="B84" s="11"/>
-    </row>
-    <row r="87" spans="1:29" ht="24" customHeight="1">
+    <row r="84" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>124</v>
       </c>
@@ -2482,12 +2633,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="24" customHeight="1">
+    <row r="88" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="24" customHeight="1">
+    <row r="90" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>127</v>
       </c>
@@ -2495,7 +2646,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="24" customHeight="1">
+    <row r="91" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>53</v>
       </c>
@@ -2506,8 +2657,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="24" customHeight="1">
-      <c r="B92" s="11"/>
+    <row r="92" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="AA92" s="6" t="s">
         <v>131</v>
       </c>
@@ -2518,7 +2671,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="24" customHeight="1">
+    <row r="94" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>134</v>
       </c>
@@ -2526,7 +2679,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="24" customHeight="1">
+    <row r="95" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>53</v>
       </c>
@@ -2537,8 +2690,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
+    <row r="96" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="AA96" s="6" t="s">
         <v>131</v>
       </c>
@@ -2549,7 +2704,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
+    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>139</v>
       </c>
@@ -2557,7 +2712,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
+    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>38</v>
       </c>
@@ -2568,15 +2723,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
+    <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
+    <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>143</v>
       </c>
@@ -2584,7 +2741,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>38</v>
       </c>
@@ -2595,15 +2752,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
+    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="11"/>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
+    <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>147</v>
       </c>
@@ -2611,12 +2770,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
+    <row r="110" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
+    <row r="112" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>150</v>
       </c>
@@ -2624,7 +2783,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="1:28" ht="24" customHeight="1">
+    <row r="113" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>152</v>
       </c>
@@ -2635,10 +2794,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
-    </row>
-    <row r="116" spans="1:28" ht="24" customHeight="1">
+    <row r="114" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>155</v>
       </c>
@@ -2646,7 +2807,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="24" customHeight="1">
+    <row r="117" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
         <v>53</v>
       </c>
@@ -2657,8 +2818,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="24" customHeight="1">
-      <c r="B118" s="11"/>
+    <row r="118" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="AA118" s="6" t="s">
         <v>159</v>
       </c>
@@ -2666,7 +2829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="24" customHeight="1">
+    <row r="120" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>160</v>
       </c>
@@ -2674,7 +2837,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="24" customHeight="1">
+    <row r="121" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
         <v>152</v>
       </c>
@@ -2685,10 +2848,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-    </row>
-    <row r="124" spans="1:28" ht="24" customHeight="1">
+    <row r="122" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>164</v>
       </c>
@@ -2696,7 +2861,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="24" customHeight="1">
+    <row r="125" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
         <v>53</v>
       </c>
@@ -2707,8 +2872,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
+    <row r="126" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="AA126" s="6" t="s">
         <v>159</v>
       </c>
@@ -2716,7 +2883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="24" customHeight="1">
+    <row r="128" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>168</v>
       </c>
@@ -2724,7 +2891,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
+    <row r="129" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
         <v>152</v>
       </c>
@@ -2735,10 +2902,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
+    <row r="130" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>172</v>
       </c>
@@ -2746,7 +2915,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
+    <row r="133" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
         <v>38</v>
       </c>
@@ -2757,10 +2926,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
+    <row r="134" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="11"/>
     </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
+    <row r="136" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>176</v>
       </c>
@@ -2768,7 +2937,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
+    <row r="137" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
         <v>152</v>
       </c>
@@ -2779,10 +2948,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="B138" s="11"/>
-    </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
+    <row r="138" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>180</v>
       </c>
@@ -2790,7 +2961,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
+    <row r="141" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
         <v>38</v>
       </c>
@@ -2801,10 +2972,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
+    <row r="142" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="11"/>
     </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
+    <row r="144" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>184</v>
       </c>
@@ -2812,7 +2983,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
+    <row r="145" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
         <v>152</v>
       </c>
@@ -2823,10 +2994,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="11"/>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
+    <row r="146" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>188</v>
       </c>
@@ -2834,7 +3007,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
+    <row r="149" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
         <v>38</v>
       </c>
@@ -2845,10 +3018,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
+    <row r="150" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="11"/>
     </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
+    <row r="152" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>192</v>
       </c>
@@ -2856,7 +3029,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
+    <row r="153" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
         <v>152</v>
       </c>
@@ -2867,10 +3040,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="11"/>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
+    <row r="154" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>196</v>
       </c>
@@ -2878,7 +3053,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
+    <row r="157" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
         <v>38</v>
       </c>
@@ -2889,10 +3064,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
+    <row r="158" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="11"/>
     </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
+    <row r="160" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>200</v>
       </c>
@@ -2900,7 +3075,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1">
+    <row r="161" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
         <v>152</v>
       </c>
@@ -2911,10 +3086,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="B162" s="11"/>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
+    <row r="162" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>204</v>
       </c>
@@ -2922,7 +3099,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
+    <row r="165" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
         <v>38</v>
       </c>
@@ -2933,10 +3110,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="24" customHeight="1">
+    <row r="166" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="11"/>
     </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
+    <row r="168" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>208</v>
       </c>
@@ -2944,7 +3121,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
+    <row r="169" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
         <v>152</v>
       </c>
@@ -2955,10 +3132,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1">
-      <c r="B170" s="11"/>
-    </row>
-    <row r="172" spans="1:3" ht="24" customHeight="1">
+    <row r="170" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>212</v>
       </c>
@@ -2966,7 +3145,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="24" customHeight="1">
+    <row r="173" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
         <v>38</v>
       </c>
@@ -2977,10 +3156,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="24" customHeight="1">
+    <row r="174" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="11"/>
     </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
+    <row r="176" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>216</v>
       </c>
@@ -2988,7 +3167,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="24" customHeight="1">
+    <row r="177" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
         <v>152</v>
       </c>
@@ -2999,10 +3178,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="24" customHeight="1">
-      <c r="B178" s="11"/>
-    </row>
-    <row r="180" spans="1:3" ht="24" customHeight="1">
+    <row r="178" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>220</v>
       </c>
@@ -3010,7 +3191,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="24" customHeight="1">
+    <row r="181" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
         <v>38</v>
       </c>
@@ -3021,10 +3202,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="24" customHeight="1">
+    <row r="182" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="11"/>
     </row>
-    <row r="184" spans="1:3" ht="24" customHeight="1">
+    <row r="184" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>224</v>
       </c>
@@ -3032,7 +3213,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="24" customHeight="1">
+    <row r="185" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
         <v>152</v>
       </c>
@@ -3043,10 +3224,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="24" customHeight="1">
-      <c r="B186" s="11"/>
-    </row>
-    <row r="188" spans="1:3" ht="24" customHeight="1">
+    <row r="186" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>228</v>
       </c>
@@ -3054,7 +3237,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="24" customHeight="1">
+    <row r="189" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
         <v>38</v>
       </c>
@@ -3065,10 +3248,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="24" customHeight="1">
-      <c r="B190" s="11"/>
-    </row>
-    <row r="192" spans="1:3" ht="24" customHeight="1">
+    <row r="190" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B190" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>232</v>
       </c>
@@ -3076,7 +3261,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="24" customHeight="1">
+    <row r="193" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
         <v>38</v>
       </c>
@@ -3087,10 +3272,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="194" spans="1:29" ht="24" customHeight="1">
-      <c r="B194" s="11"/>
-    </row>
-    <row r="197" spans="1:29" ht="24" customHeight="1">
+    <row r="194" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
         <v>236</v>
       </c>
@@ -3098,12 +3285,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="198" spans="1:29" ht="24" customHeight="1">
+    <row r="198" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:29" ht="24" customHeight="1">
+    <row r="200" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>239</v>
       </c>
@@ -3111,7 +3298,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="201" spans="1:29" ht="24" customHeight="1">
+    <row r="201" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
         <v>53</v>
       </c>
@@ -3122,8 +3309,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="24" customHeight="1">
-      <c r="B202" s="11"/>
+    <row r="202" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="AA202" s="6" t="s">
         <v>159</v>
       </c>
@@ -3131,7 +3320,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="24" customHeight="1">
+    <row r="204" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>243</v>
       </c>
@@ -3139,7 +3328,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="24" customHeight="1">
+    <row r="205" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
         <v>53</v>
       </c>
@@ -3150,7 +3339,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="24" customHeight="1">
+    <row r="206" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="11"/>
       <c r="AA206" s="6" t="s">
         <v>247</v>
@@ -3162,7 +3351,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="208" spans="1:29" ht="24" customHeight="1">
+    <row r="208" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>249</v>
       </c>
@@ -3170,7 +3359,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="24" customHeight="1">
+    <row r="209" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
         <v>38</v>
       </c>
@@ -3181,15 +3370,15 @@
         <v>252</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="24" customHeight="1">
+    <row r="210" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="24" customHeight="1">
+    <row r="211" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="11"/>
     </row>
-    <row r="214" spans="1:3" ht="24" customHeight="1">
+    <row r="214" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="s">
         <v>253</v>
       </c>
@@ -3197,12 +3386,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="24" customHeight="1">
+    <row r="215" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="24" customHeight="1">
+    <row r="217" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>256</v>
       </c>
@@ -3210,7 +3399,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="24" customHeight="1">
+    <row r="218" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
         <v>38</v>
       </c>
@@ -3221,15 +3410,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="24" customHeight="1">
+    <row r="219" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="178" customHeight="1">
-      <c r="B220" s="11"/>
-    </row>
-    <row r="222" spans="1:3" ht="24" customHeight="1">
+    <row r="220" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>260</v>
       </c>
@@ -3237,7 +3428,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="24" customHeight="1">
+    <row r="223" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
         <v>38</v>
       </c>
@@ -3248,15 +3439,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="24" customHeight="1">
+    <row r="224" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="24" customHeight="1">
+    <row r="225" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="11"/>
     </row>
-    <row r="227" spans="1:3" ht="24" customHeight="1">
+    <row r="227" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>264</v>
       </c>
@@ -3264,7 +3455,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="24" customHeight="1">
+    <row r="228" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
         <v>38</v>
       </c>
@@ -3275,15 +3466,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="24" customHeight="1">
+    <row r="229" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="24" customHeight="1">
+    <row r="230" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="11"/>
     </row>
-    <row r="232" spans="1:3" ht="24" customHeight="1">
+    <row r="232" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>268</v>
       </c>
@@ -3291,7 +3482,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="24" customHeight="1">
+    <row r="233" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="14" t="s">
         <v>38</v>
       </c>
@@ -3302,87 +3493,30 @@
         <v>271</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="24" customHeight="1">
+    <row r="234" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="24" customHeight="1">
+    <row r="235" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA20:AD20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B206 B96 B92" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>AA24:AC24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51 B202 B126 B118 B79 B75 B63" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>AA51:AB51</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55 B67" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AB63</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
-      <formula1>AA75:AB75</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>AA79:AB79</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
-      <formula1>AA92:AC92</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
-      <formula1>AA96:AC96</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114 B186 B178 B170 B162 B154 B146 B138 B130 B122" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
-      <formula1>AA118:AB118</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B126">
-      <formula1>AA126:AB126</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B130">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B154">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B162">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B170">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B178">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B186">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B202">
-      <formula1>AA202:AB202</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B206">
-      <formula1>AA206:AC206</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3390,20 +3524,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AE137"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>272</v>
       </c>
@@ -3411,12 +3547,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>275</v>
       </c>
@@ -3424,7 +3560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
@@ -3435,10 +3571,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>278</v>
       </c>
@@ -3446,7 +3582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
@@ -3457,15 +3593,15 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>281</v>
       </c>
@@ -3473,7 +3609,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>152</v>
       </c>
@@ -3484,10 +3620,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="17" spans="1:31" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>285</v>
       </c>
@@ -3495,7 +3633,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1">
+    <row r="18" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>53</v>
       </c>
@@ -3506,13 +3644,15 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
+    <row r="19" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+    <row r="20" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>289</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>289</v>
       </c>
@@ -3529,753 +3669,908 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
+    <row r="21" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
+    <row r="26" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="B24" s="10" t="s">
+    <row r="27" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
-      <c r="AA25" s="6" t="s">
+    <row r="28" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AA28" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB28" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AC28" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
+    <row r="29" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
+    <row r="32" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="B29" s="10" t="s">
+    <row r="33" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="AA30" s="6" t="s">
+    <row r="34" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="AB30" s="6" t="s">
+      <c r="AA34" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB34" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="AC30" s="6" t="s">
+      <c r="AC34" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="12" t="s">
+    <row r="35" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B38" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="13" t="s">
+    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="41" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
+    <row r="42" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
+    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
+    <row r="46" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="12" t="s">
+    <row r="47" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B50" s="12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="B46" s="13" t="s">
+    <row r="51" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
+    <row r="53" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B53" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
+    <row r="54" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="AA50" s="6" t="s">
+    <row r="55" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA55" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="AB50" s="6" t="s">
+      <c r="AB55" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="AC50" s="6" t="s">
+      <c r="AC55" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="AD50" s="6" t="s">
+      <c r="AD55" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="AE50" s="6" t="s">
+      <c r="AE55" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+    <row r="57" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" ht="24" customHeight="1">
-      <c r="B54" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
-      <c r="AA55" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB55" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC55" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD55" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" ht="24" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" ht="24" customHeight="1">
+    <row r="58" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="24" customHeight="1">
-      <c r="B60" s="11"/>
+    <row r="60" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="AA60" s="6" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AD60" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1">
-      <c r="A63" s="12" t="s">
+    <row r="61" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA61" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB61" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC61" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD61" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA66" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB66" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC66" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD66" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA67" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD67" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B70" s="12" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="B64" s="13" t="s">
+    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
+    <row r="73" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B73" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="A67" s="14" t="s">
+    <row r="74" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
-      <c r="AA68" s="6" t="s">
+    <row r="75" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA75" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="AB68" s="6" t="s">
+      <c r="AB75" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="AC68" s="6" t="s">
+      <c r="AC75" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="AD68" s="6" t="s">
+      <c r="AD75" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
+    <row r="77" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="A71" s="14" t="s">
+    <row r="78" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B78" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1">
-      <c r="B72" s="10" t="s">
+    <row r="79" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="B73" s="11"/>
-      <c r="AA73" s="6" t="s">
+    <row r="80" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="AB73" s="6" t="s">
+      <c r="AA80" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB80" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="AC73" s="6" t="s">
+      <c r="AC80" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
-      <c r="A76" s="12" t="s">
+    <row r="81" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA81" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB81" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC81" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B84" s="12" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="B77" s="13" t="s">
+    <row r="85" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="13" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
+    <row r="87" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B87" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1">
-      <c r="A80" s="14" t="s">
+    <row r="88" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
-    </row>
-    <row r="83" spans="1:31" ht="24" customHeight="1">
-      <c r="A83" s="9" t="s">
+    <row r="89" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B91" s="9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="24" customHeight="1">
-      <c r="A84" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" ht="24" customHeight="1">
-      <c r="B85" s="11"/>
-      <c r="AA85" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB85" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="AC85" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="AD85" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="AE85" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" ht="24" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" ht="24" customHeight="1">
-      <c r="B89" s="13" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31" ht="24" customHeight="1">
+    <row r="92" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B92" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA93" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB93" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC93" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD93" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE93" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C100" s="10" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="24" customHeight="1">
-      <c r="B93" s="10" t="s">
+    <row r="101" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="24" customHeight="1">
-      <c r="B94" s="11"/>
-      <c r="AA94" s="6" t="s">
+    <row r="102" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA102" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="AB94" s="6" t="s">
+      <c r="AB102" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="AC94" s="6" t="s">
+      <c r="AC102" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="AD94" s="6" t="s">
+      <c r="AD102" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="AE94" s="6" t="s">
+      <c r="AE102" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="24" customHeight="1">
-      <c r="A96" s="9" t="s">
+    <row r="104" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B104" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="24" customHeight="1">
-      <c r="A97" s="14" t="s">
+    <row r="105" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B105" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="24" customHeight="1">
-      <c r="B98" s="10" t="s">
+    <row r="106" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="24" customHeight="1">
-      <c r="B99" s="11"/>
-      <c r="AA99" s="6" t="s">
+    <row r="107" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="AB99" s="6" t="s">
+      <c r="AA107" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB107" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="AC99" s="6" t="s">
+      <c r="AC107" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="AD99" s="6" t="s">
+      <c r="AD107" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="AE99" s="6" t="s">
+      <c r="AE107" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="24" customHeight="1">
-      <c r="A101" s="9" t="s">
+    <row r="108" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA108" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB108" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC108" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD108" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE108" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B110" s="9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="24" customHeight="1">
-      <c r="A102" s="14" t="s">
+    <row r="111" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="24" customHeight="1">
-      <c r="B103" s="11"/>
-      <c r="AA103" s="6" t="s">
+    <row r="112" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="AB103" s="6" t="s">
+      <c r="AA112" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB112" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="AC103" s="6" t="s">
+      <c r="AC112" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="24" customHeight="1">
-      <c r="A105" s="9" t="s">
+    <row r="114" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B114" s="9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="24" customHeight="1">
-      <c r="A106" s="14" t="s">
+    <row r="115" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="24" customHeight="1">
-      <c r="B107" s="11"/>
-    </row>
-    <row r="109" spans="1:31" ht="24" customHeight="1">
-      <c r="A109" s="9" t="s">
+    <row r="116" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="11"/>
+    </row>
+    <row r="118" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B118" s="9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="24" customHeight="1">
-      <c r="A110" s="14" t="s">
+    <row r="119" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B119" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="24" customHeight="1">
-      <c r="B111" s="11"/>
-      <c r="AA111" s="6" t="s">
+    <row r="120" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="AB111" s="6" t="s">
+      <c r="AA120" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB120" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="AC111" s="6" t="s">
+      <c r="AC120" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="AD111" s="6" t="s">
+      <c r="AD120" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="24" customHeight="1">
-      <c r="A114" s="12" t="s">
+    <row r="123" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B123" s="12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="24" customHeight="1">
-      <c r="B115" s="13" t="s">
+    <row r="124" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="24" customHeight="1">
-      <c r="A117" s="9" t="s">
+    <row r="126" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B126" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="24" customHeight="1">
-      <c r="A118" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" ht="24" customHeight="1">
-      <c r="B119" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" ht="24" customHeight="1">
-      <c r="B120" s="11"/>
-      <c r="AA120" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB120" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" ht="24" customHeight="1">
-      <c r="A122" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" ht="24" customHeight="1">
-      <c r="A123" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28" ht="24" customHeight="1">
-      <c r="B124" s="11"/>
-    </row>
-    <row r="126" spans="1:28" ht="24" customHeight="1">
-      <c r="A126" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" ht="24" customHeight="1">
+    <row r="127" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B127" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="11"/>
+      <c r="AA129" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB129" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="11"/>
+    </row>
+    <row r="135" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C136" s="10" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="24" customHeight="1">
-      <c r="B128" s="11"/>
-      <c r="AA128" s="6" t="s">
+    <row r="137" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="AB128" s="6" t="s">
+      <c r="AA137" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB137" s="6" t="s">
         <v>420</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B133 B89" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55 B107:B108 B102 B20:B23 B93" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>AA20:AE20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AC25</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B29 B112 B80:B81 B34:B35" xr:uid="{00000000-0002-0000-0300-000002000000}">
+      <formula1>AA28:AC28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AC30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AE50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>AA55:AD55</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:B61 B120 B75 B66:B67" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>AA60:AD60</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>AA68:AD68</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
-      <formula1>AA73:AC73</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
-      <formula1>AA85:AE85</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94">
-      <formula1>AA94:AE94</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
-      <formula1>AA99:AE99</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
-      <formula1>AA103:AC103</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B111">
-      <formula1>AA111:AD111</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B120">
-      <formula1>AA120:AB120</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128">
-      <formula1>AA128:AB128</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B129 B137" xr:uid="{00000000-0002-0000-0300-00000F000000}">
+      <formula1>AA129:AB129</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/cmcc-esm2/cmip6_cmcc_cmcc-esm2_ocnbgchem.xlsx
+++ b/cmip6/models/cmcc-esm2/cmip6_cmcc_cmcc-esm2_ocnbgchem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/models/cmcc-esm2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E447B2-CAAE-2E46-A04E-E2DF9A73B6E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F0C5D7-F9A4-F34A-9635-9A9F82112819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="24700" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="24700" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="443">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1312,9 +1312,6 @@
     <t>Variable stoichiometry (C, N, P, Si, Fe): Diatoms, Flagellates, Dissolved Organic Matter (pelagic and benthic), Particulate Organic Matter (pelagic and benthic). Fixed stoichiometry (C ratios): Bacteria, Microzooplankton, Mesozooplankton</t>
   </si>
   <si>
-    <t>The Biogeochemical Flux Model (BFM v5.2, www.bfm-community.eu/) is a biomass-based numerical model to simulate the major biogeochemical processes occurring in pelagic, benthic and sea-ice components of marine ecosystems. The BFM considers the cycles of nitrogen, phosphorus, silica, iron, carbon, and oxygen in the water, sediments, sea ice and in the related organisms from bacteria to benthic meiofauna. All living organisms are Plankton dynamics are parameterized in terms of functional groups with prescribed functional traits. For instance, the BFM plankton functional groups are subdivided in producers (phytoplankton), consumers (zooplankton), and decomposers (bacteria). These broad functional classifications are further partitioned into functional subgroups to create a planktonic food web (e.g. diatoms, picophytoplankton, microzooplankton, etc.).</t>
-  </si>
-  <si>
     <t>All variables produced for CMIP6, that are included in list 1.1.1.7</t>
   </si>
   <si>
@@ -1340,6 +1337,21 @@
   </si>
   <si>
     <t>madec_2017</t>
+  </si>
+  <si>
+    <t>LOVATO-TOMAS</t>
+  </si>
+  <si>
+    <t>BUTENSCHÖN-MOMME</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>bfm_2020</t>
+  </si>
+  <si>
+    <t>The Biogeochemical Flux Model (BFM v5.2, www.bfm-community.eu/) is a biomass-based numerical model to simulate the major biogeochemical processes occurring in pelagic, benthic and sea-ice components of marine ecosystems. The BFM considers the cycles of nitrogen, phosphorus, silica, iron, carbon, and oxygen in the water, sediments, sea ice and in the related organisms from bacteria to benthic meiofauna. All living organisms are Plankton dynamics are parameterized in terms of functional groups with prescribed functional traits. For instance, the BFM plankton functional groups are subdivided in producers (phytoplankton), consumers (zooplankton), and decomposers (bacteria). These broad functional classifications are further partitioned into functional subgroups to create a planktonic food web (e.g. diatoms, picophytoplankton, microzooplankton, etc.). A full description of model equations and available parameterizations is given in bfm_2020.</t>
   </si>
 </sst>
 </file>
@@ -1994,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2044,56 +2056,72 @@
     </row>
     <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B17" s="11" t="s">
+    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Tracers"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2103,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2207,7 +2235,7 @@
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2363,7 +2391,7 @@
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2587,7 +2615,7 @@
         <v>59</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA79" s="6" t="s">
         <v>119</v>
@@ -2622,7 +2650,7 @@
     </row>
     <row r="84" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2759,7 +2787,7 @@
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3824,7 +3852,7 @@
         <v>59</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AA35" s="6" t="s">
         <v>303</v>
@@ -3870,7 +3898,7 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3894,7 +3922,7 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3995,7 +4023,7 @@
         <v>59</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AA61" s="6" t="s">
         <v>331</v>

--- a/cmip6/models/cmcc-esm2/cmip6_cmcc_cmcc-esm2_ocnbgchem.xlsx
+++ b/cmip6/models/cmcc-esm2/cmip6_cmcc_cmcc-esm2_ocnbgchem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/models/cmcc-esm2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F0C5D7-F9A4-F34A-9635-9A9F82112819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33267D19-18BD-6745-919D-5FCE6D200D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="24700" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="24700" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="444">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1352,6 +1352,9 @@
   </si>
   <si>
     <t>The Biogeochemical Flux Model (BFM v5.2, www.bfm-community.eu/) is a biomass-based numerical model to simulate the major biogeochemical processes occurring in pelagic, benthic and sea-ice components of marine ecosystems. The BFM considers the cycles of nitrogen, phosphorus, silica, iron, carbon, and oxygen in the water, sediments, sea ice and in the related organisms from bacteria to benthic meiofauna. All living organisms are Plankton dynamics are parameterized in terms of functional groups with prescribed functional traits. For instance, the BFM plankton functional groups are subdivided in producers (phytoplankton), consumers (zooplankton), and decomposers (bacteria). These broad functional classifications are further partitioned into functional subgroups to create a planktonic food web (e.g. diatoms, picophytoplankton, microzooplankton, etc.). A full description of model equations and available parameterizations is given in bfm_2020.</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
   </si>
 </sst>
 </file>
@@ -2006,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2056,72 +2059,80 @@
     </row>
     <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>438</v>
+        <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B10" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B11" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Tracers"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2131,7 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
